--- a/data/case1/20/Plm2_13.xlsx
+++ b/data/case1/20/Plm2_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11967545091521004</v>
+        <v>-0.082199919036966662</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11957441681964553</v>
+        <v>0.082044355511740719</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.03266963768777309</v>
+        <v>-0.017998870150336188</v>
       </c>
       <c r="B2" s="0">
-        <v>0.032552404452454553</v>
+        <v>0.017359958747904969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.11550752331379144</v>
+        <v>0.085573427404558089</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.11587158702391775</v>
+        <v>-0.085939011713129787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1681241247655727</v>
+        <v>-0.19805441659352141</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16740933493458598</v>
+        <v>0.1969462285217034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16140933519996103</v>
+        <v>-0.19094622889020929</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15998538578927324</v>
+        <v>0.18870814135191338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.06883298894060319</v>
+        <v>-0.090163353240932942</v>
       </c>
       <c r="B6" s="0">
-        <v>0.06877596220928206</v>
+        <v>0.090062455497230687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.048775962531538042</v>
+        <v>-0.070062455950145264</v>
       </c>
       <c r="B7" s="0">
-        <v>0.048663822527734268</v>
+        <v>0.069834691966160989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.02866382285206992</v>
+        <v>-0.049834692423151417</v>
       </c>
       <c r="B8" s="0">
-        <v>0.028585222153865608</v>
+        <v>0.049661399492535452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.022585222432971008</v>
+        <v>-0.04366139988536144</v>
       </c>
       <c r="B9" s="0">
-        <v>0.022520906103961735</v>
+        <v>0.043521783234600875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.016520906384606349</v>
+        <v>-0.037521783631440542</v>
       </c>
       <c r="B10" s="0">
-        <v>0.016513195431393513</v>
+        <v>0.037502921013988555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.012013195707083923</v>
+        <v>-0.033002921403546992</v>
       </c>
       <c r="B11" s="0">
-        <v>0.011994514548590018</v>
+        <v>0.032971524370594807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.042762802057201288</v>
+        <v>-0.027391179744002514</v>
       </c>
       <c r="B12" s="0">
-        <v>0.042562523219606962</v>
+        <v>0.027284336736391523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.036562523504549027</v>
+        <v>-0.013795362012025691</v>
       </c>
       <c r="B13" s="0">
-        <v>0.036509330261910833</v>
+        <v>0.013787851045753641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.024509330568248444</v>
+        <v>-0.0017878514772613485</v>
       </c>
       <c r="B14" s="0">
-        <v>0.024485436131168825</v>
+        <v>0.0017876422239329059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.018485436418158585</v>
+        <v>0.0042123573739312192</v>
       </c>
       <c r="B15" s="0">
-        <v>0.018468234821449769</v>
+        <v>-0.0042137049342230171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026858049421499</v>
+        <v>-0.015027111459101405</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004425942075184</v>
+        <v>0.015004368130623558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044262310504664</v>
+        <v>-0.0090043685342235946</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999997006486865</v>
+        <v>0.0089999995812855005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.076904779407815482</v>
+        <v>-0.054045485744218524</v>
       </c>
       <c r="B18" s="0">
-        <v>0.076845646835057124</v>
+        <v>0.05401826132517229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096848285327546</v>
+        <v>-0.045018261703748674</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013911136602786</v>
+        <v>0.044824239088566031</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013911412293027</v>
+        <v>-0.035824239472882269</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004285794310348</v>
+        <v>0.035789143154836722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042860703629657</v>
+        <v>-0.0090042868744601989</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997236915874</v>
+        <v>0.0089999996142031691</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.13905992804004441</v>
+        <v>-0.093933386531432461</v>
       </c>
       <c r="B22" s="0">
-        <v>0.1385132131456519</v>
+        <v>0.093624992878691415</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.12951321342292754</v>
+        <v>-0.084624993261002146</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12855787813302122</v>
+        <v>0.084124937069428363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.086557878528894072</v>
+        <v>-0.042124937619985481</v>
       </c>
       <c r="B24" s="0">
-        <v>0.086081716972749689</v>
+        <v>0.041999999446503011</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.085152397123010815</v>
+        <v>-0.092544788493686525</v>
       </c>
       <c r="B25" s="0">
-        <v>0.085044432672553683</v>
+        <v>0.092378103348984553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.079044432947728893</v>
+        <v>-0.086378103733029121</v>
       </c>
       <c r="B26" s="0">
-        <v>0.078912644285008327</v>
+        <v>0.086168100559024907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.072912644561331064</v>
+        <v>-0.080168100944937315</v>
       </c>
       <c r="B27" s="0">
-        <v>0.072488594925870231</v>
+        <v>0.079467597552962843</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.066488595207243151</v>
+        <v>-0.073467597946550889</v>
       </c>
       <c r="B28" s="0">
-        <v>0.066216663229560879</v>
+        <v>0.072997930377275644</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062517243804295575</v>
+        <v>-0.060997930805784861</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06216419423514985</v>
+        <v>0.060783822944078025</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042164194569014324</v>
+        <v>-0.04078382341439335</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04201961618634531</v>
+        <v>0.040666861429760726</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02701961650603657</v>
+        <v>-0.027019571732951775</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000929779019245</v>
+        <v>0.027000839068552551</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060009301193648668</v>
+        <v>-0.0060008395481849774</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999710048165</v>
+        <v>0.0059999995938486705</v>
       </c>
     </row>
   </sheetData>
